--- a/tests/manual/Regression.xlsx
+++ b/tests/manual/Regression.xlsx
@@ -17,13 +17,15 @@
     <sheet name="Staff" sheetId="21" r:id="rId8"/>
     <sheet name="Langs" sheetId="23" r:id="rId9"/>
     <sheet name="MainPage" sheetId="22" r:id="rId10"/>
+    <sheet name="Profile" sheetId="24" r:id="rId11"/>
+    <sheet name="Roles" sheetId="25" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="207">
   <si>
     <t>Login</t>
   </si>
@@ -113,75 +115,14 @@
     <t>Click button Coordinator</t>
   </si>
   <si>
-    <t>Dropdown with
-Ukraine
-Region-&gt;Center
-Region-&gt;East
-Region-&gt;North
-Region-&gt;South
-Region-&gt;West
-State-&gt;ARC
-State-&gt;Chercasy
-State-&gt;Chernihiv
-State-&gt;Chernivtsy
-State-&gt;Dnipropetrovsk
-State-&gt;Donetsk
-State-&gt;Ivano-Frankivsk
-State-&gt;Kharkiv
-State-&gt;Kherson
-State-&gt;Khmelnitskyi
-State-&gt;Kiev
-State-&gt;Kirovograd
-State-&gt;Luhansk
-State-&gt;Lviv
-State-&gt;Mykolaiv
-State-&gt;Odessa
-State-&gt;Poltava
-State-&gt;Rivne
-State-&gt;Sumy
-State-&gt;Ternopyl
-State-&gt;Vinnitsia
-State-&gt;Volyn
-State-&gt;Zakkarpatia
-State-&gt;Zaporozhia
-State-&gt;Zhytomir</t>
-  </si>
-  <si>
     <t>Select any point (For example Ukraine</t>
   </si>
   <si>
     <t>Point is selected</t>
-  </si>
-  <si>
-    <t>Signup form is shown
-First Name
-Last Name
-Email
-Password
-Repeat password
-fields are shown
-I'm a student
-I'm a coach
-Coordinator
-buttons are shown
-Captcha is shown
-Checkbox I agree with rules of the service is unchecked
-Button Sign up is shown</t>
   </si>
   <si>
     <t>1. Uncheck buttons I'm a student, I'm a coach, Ukraine
 2. Click Sign up</t>
-  </si>
-  <si>
-    <t>Red edges around
-First name, Last Name, email, Password are shown
-Red labels
-First name cannot be blank.
-Last name cannot be blank.
-Email cannot be blank.
-Password length should be greater or equal than 6.
-Please, read and accept service rules
-labels are shown</t>
   </si>
   <si>
     <t>1. Input Email in wrong format
@@ -638,6 +579,219 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Click at username</t>
+  </si>
+  <si>
+    <t>Page with 
+Name
+Email
+User status is shown</t>
+  </si>
+  <si>
+    <t>Status IE 9</t>
+  </si>
+  <si>
+    <t>Status Ie11</t>
+  </si>
+  <si>
+    <t>Check Year and Ukraine, Region, SubRegion news</t>
+  </si>
+  <si>
+    <t>Signup form is shown
+First Name
+MiddleName
+Last Name
+Email
+Password
+Repeat password
+fields are shown
+I'm a student
+I'm a coach
+Coordinator (Ukraine, Region, Subregion)
+buttons are shown
+Captcha is shown
+Checkbox I agree with rules of the service is unchecked
+Button Sign up is shown</t>
+  </si>
+  <si>
+    <t>Dropdown with
+Ukraine
+Region
+SubRegion are shown</t>
+  </si>
+  <si>
+    <t>Red edges around
+First name, Middle Name, Last Name, email, Password, role, school are shown
+Red labels
+First name cannot be blank.
+Last name cannot be blank.
+Email cannot be blank.
+Password length should be greater or equal than 6.
+Please, read and accept service rules
+labels are shown</t>
+  </si>
+  <si>
+    <t>Input second password as incorrect</t>
+  </si>
+  <si>
+    <t>Password is not confirmed. Message is shown</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Loigin by student</t>
+  </si>
+  <si>
+    <t>Student is logged and General info is shown</t>
+  </si>
+  <si>
+    <t>Remove all values and click Save, email shouldn't remove</t>
+  </si>
+  <si>
+    <t>First Name (urkaine), Middle name (ukraine) Last Name Ukraine, Roles get red edges</t>
+  </si>
+  <si>
+    <t>Input correct all values and click save</t>
+  </si>
+  <si>
+    <t>Relogin</t>
+  </si>
+  <si>
+    <t>Values are saved</t>
+  </si>
+  <si>
+    <t>All values are saved</t>
+  </si>
+  <si>
+    <t>Try to reset password</t>
+  </si>
+  <si>
+    <t>All works correct</t>
+  </si>
+  <si>
+    <t>http://acc.icpc.org.ua/user/me 
+General Info</t>
+  </si>
+  <si>
+    <t>Additional info</t>
+  </si>
+  <si>
+    <t>Go to additional info (ukrainian) and click save</t>
+  </si>
+  <si>
+    <t>Red edges with corresponding messages are shown</t>
+  </si>
+  <si>
+    <t>Input all values
+Logout and login</t>
+  </si>
+  <si>
+    <t>Go to additional info (english) and click save</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Login by student</t>
+  </si>
+  <si>
+    <t>User can go to profile and see 
+General Info, Additional info (ukrainian), Additional info (english)</t>
+  </si>
+  <si>
+    <t>User see Ukraine, Region and SubRegion news corresponding year</t>
+  </si>
+  <si>
+    <t>Click Docs-&gt; Regulations</t>
+  </si>
+  <si>
+    <t>Click Docs-&gt; Guidance</t>
+  </si>
+  <si>
+    <t>Guidance docs are shown. Student can't edit or remove it. Only open</t>
+  </si>
+  <si>
+    <t>Regulations docs are shown. Student can't edit or remove it. Only open</t>
+  </si>
+  <si>
+    <t>Click team</t>
+  </si>
+  <si>
+    <t>Team name are shown
+Student can't edit</t>
+  </si>
+  <si>
+    <t>1st Stage Results
+2dn Stage Results
+3rd Phase results
+are shown
+Student can't edit</t>
+  </si>
+  <si>
+    <t>Login by unapproved Coach</t>
+  </si>
+  <si>
+    <t>The same as student</t>
+  </si>
+  <si>
+    <t>Login by approved Coach</t>
+  </si>
+  <si>
+    <t>The same as student, except Create a new team</t>
+  </si>
+  <si>
+    <t>Click Teams, Click Create a new team</t>
+  </si>
+  <si>
+    <t>Team info is loaded</t>
+  </si>
+  <si>
+    <t>Click Save</t>
+  </si>
+  <si>
+    <t>Red edges with corresponding red messages are shown</t>
+  </si>
+  <si>
+    <t>Input all correct values Click save</t>
+  </si>
+  <si>
+    <t>Data is saved</t>
+  </si>
+  <si>
+    <t>Login by unapproved Coordinator</t>
+  </si>
+  <si>
+    <t>Login by approved Coordinator</t>
+  </si>
+  <si>
+    <t>The same as student, except Create a new new, docs, results</t>
+  </si>
+  <si>
+    <t>Click Add news</t>
+  </si>
+  <si>
+    <t>Create news is opened</t>
+  </si>
+  <si>
+    <t>Add new in Ukrain</t>
+  </si>
+  <si>
+    <t>Add new in Region</t>
+  </si>
+  <si>
+    <t>Add new in Subregion</t>
+  </si>
+  <si>
+    <t>Click Docs-&gt;Regulations</t>
+  </si>
+  <si>
+    <t>Click Docs-&gt;Guidance</t>
+  </si>
+  <si>
+    <t>Coordinator can Upload Docs, Edit and Delete</t>
   </si>
 </sst>
 </file>
@@ -680,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,8 +895,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1014,12 +1174,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1106,6 +1305,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1127,33 +1358,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1459,7 +1677,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1482,7 +1702,7 @@
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>9</v>
@@ -1491,63 +1711,75 @@
         <v>10</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+        <v>145</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="22"/>
+        <v>147</v>
+      </c>
+      <c r="B7" s="53"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1555,34 +1787,35 @@
     <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1608,38 +1841,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1647,93 +1880,717 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="E5" s="50"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A7" si="0">A5+1</f>
+        <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <f>A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="73"/>
+    </row>
+    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-    </row>
-    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B9:L9"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B8:L8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <f>A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="B4:L4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <f>A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>A11+1</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f>A12+1</f>
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+    </row>
+    <row r="14" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <f>A13+1</f>
+        <v>4</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="55"/>
+      <c r="C19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="55"/>
+      <c r="C21" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B18:L18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1743,8 +2600,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,18 +2611,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1805,14 +2662,14 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1828,13 +2685,13 @@
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A15" si="0">A5+1</f>
+        <f t="shared" ref="A6:A14" si="0">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
@@ -1842,9 +2699,9 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="55"/>
+        <v>153</v>
+      </c>
+      <c r="E6" s="35"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
@@ -1860,7 +2717,7 @@
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
@@ -1876,11 +2733,11 @@
       <c r="D8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1890,9 +2747,9 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="55"/>
+        <v>154</v>
+      </c>
+      <c r="E9" s="35"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
@@ -1903,28 +2760,28 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="56"/>
+        <v>155</v>
+      </c>
+      <c r="E11" s="35"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
@@ -1935,12 +2792,12 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="56"/>
+        <v>33</v>
+      </c>
+      <c r="E12" s="35"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
@@ -1951,12 +2808,12 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="35"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
@@ -1967,30 +2824,38 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="56"/>
+        <v>37</v>
+      </c>
+      <c r="E14" s="35"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f>A14+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F55" s="12"/>
@@ -2027,26 +2892,26 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2072,38 +2937,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2111,15 +2976,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="56"/>
+        <v>42</v>
+      </c>
+      <c r="E5" s="50"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
@@ -2130,12 +2995,12 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="56"/>
+        <v>44</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="50"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
@@ -2146,12 +3011,12 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="56"/>
+        <v>46</v>
+      </c>
+      <c r="E7" s="50"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
@@ -2162,12 +3027,12 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="56"/>
+        <v>48</v>
+      </c>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
@@ -2178,12 +3043,12 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="56"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="50"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
@@ -2194,12 +3059,12 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="56"/>
+        <v>52</v>
+      </c>
+      <c r="E10" s="50"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
@@ -2210,12 +3075,12 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="56"/>
+        <v>54</v>
+      </c>
+      <c r="E11" s="50"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
@@ -2226,12 +3091,12 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="56"/>
+        <v>56</v>
+      </c>
+      <c r="E12" s="50"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
@@ -4477,27 +5342,27 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4523,38 +5388,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -4562,15 +5427,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="56"/>
+        <v>59</v>
+      </c>
+      <c r="E5" s="50"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
@@ -4581,12 +5446,12 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="E6" s="50"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
@@ -4597,12 +5462,12 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="56"/>
+        <v>62</v>
+      </c>
+      <c r="E7" s="50"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
@@ -4613,12 +5478,12 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="56"/>
+        <v>65</v>
+      </c>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
@@ -4628,15 +5493,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="56"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="50"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
@@ -4647,7 +5512,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="65"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
@@ -4656,19 +5521,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="B11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4677,12 +5542,12 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="56"/>
+        <v>71</v>
+      </c>
+      <c r="E12" s="50"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
@@ -4693,12 +5558,12 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="56"/>
+        <v>73</v>
+      </c>
+      <c r="E13" s="50"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
@@ -4709,12 +5574,12 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="56"/>
+        <v>74</v>
+      </c>
+      <c r="E14" s="50"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
@@ -4725,12 +5590,12 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="56"/>
+        <v>74</v>
+      </c>
+      <c r="E15" s="50"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
@@ -4741,12 +5606,12 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="56"/>
+        <v>75</v>
+      </c>
+      <c r="E16" s="50"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
@@ -4756,15 +5621,15 @@
         <v>14</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="56"/>
+        <v>67</v>
+      </c>
+      <c r="E17" s="50"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
@@ -4775,21 +5640,21 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="56"/>
+        <v>68</v>
+      </c>
+      <c r="E18" s="50"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -8219,29 +9084,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8267,38 +9132,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -8306,15 +9171,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
@@ -8325,12 +9190,12 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="E6" s="42"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
     </row>
@@ -8340,11 +9205,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="56"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
     </row>
@@ -8353,19 +9218,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
+      <c r="B8" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -8374,12 +9239,12 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="56"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="42"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
@@ -8390,12 +9255,12 @@
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
     </row>
@@ -8404,19 +9269,19 @@
         <f t="shared" ref="A11" si="1">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="B11" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -8425,12 +9290,12 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="56"/>
+        <v>87</v>
+      </c>
+      <c r="E12" s="42"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
     </row>
@@ -8441,12 +9306,12 @@
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="E13" s="42"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
     </row>
@@ -8455,19 +9320,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="B14" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -8476,12 +9341,12 @@
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="56"/>
+        <v>90</v>
+      </c>
+      <c r="E15" s="42"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
     </row>
@@ -8492,12 +9357,12 @@
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="E16" s="42"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
     </row>
@@ -8508,12 +9373,12 @@
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="56"/>
+        <v>92</v>
+      </c>
+      <c r="E17" s="42"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
     </row>
@@ -8524,12 +9389,12 @@
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="56"/>
+        <v>94</v>
+      </c>
+      <c r="E18" s="42"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
     </row>
@@ -8540,12 +9405,12 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="56"/>
+        <v>96</v>
+      </c>
+      <c r="E19" s="42"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="16"/>
@@ -8558,12 +9423,12 @@
       <c r="A20" s="34"/>
       <c r="B20" s="8"/>
       <c r="C20" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="56"/>
+        <v>99</v>
+      </c>
+      <c r="E20" s="42"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
@@ -8571,12 +9436,12 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="56"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="42"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
@@ -8584,17 +9449,38 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B23:L23"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:L3"/>
@@ -8620,20 +9506,20 @@
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8659,38 +9545,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -8698,15 +9584,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="56"/>
+        <v>104</v>
+      </c>
+      <c r="E5" s="42"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
@@ -8717,12 +9603,12 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="56"/>
+        <v>107</v>
+      </c>
+      <c r="E6" s="42"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
     </row>
@@ -8733,12 +9619,12 @@
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="56"/>
+        <v>108</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
     </row>
@@ -8747,7 +9633,7 @@
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
     </row>
@@ -8757,7 +9643,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -8776,15 +9662,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="56"/>
+        <v>104</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
     </row>
@@ -8792,12 +9678,12 @@
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="56"/>
+        <v>107</v>
+      </c>
+      <c r="E11" s="42"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
     </row>
@@ -8805,12 +9691,12 @@
       <c r="A12" s="4"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="56"/>
+        <v>108</v>
+      </c>
+      <c r="E12" s="42"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
     </row>
@@ -8822,7 +9708,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="65"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
     </row>
@@ -8832,7 +9718,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -8851,13 +9737,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="34"/>
@@ -8867,10 +9753,10 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="34"/>
@@ -8880,10 +9766,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="34"/>
@@ -8897,7 +9783,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="65"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
     </row>
@@ -8907,7 +9793,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -8926,13 +9812,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="34"/>
@@ -8945,10 +9831,10 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="34"/>
@@ -8961,10 +9847,10 @@
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="34"/>
@@ -8977,10 +9863,10 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="8"/>
@@ -8993,7 +9879,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>11</v>
@@ -9030,20 +9916,20 @@
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9069,54 +9955,54 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>87</v>
+      <c r="B5" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="56"/>
+        <v>115</v>
+      </c>
+      <c r="E5" s="42"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="11"/>
@@ -9132,12 +10018,12 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="56"/>
+        <v>117</v>
+      </c>
+      <c r="E6" s="42"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="11"/>
@@ -9153,12 +10039,12 @@
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="56"/>
+        <v>108</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="11"/>
@@ -9172,7 +10058,7 @@
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="11"/>
@@ -9186,35 +10072,35 @@
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
+      <c r="B9" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>87</v>
+      <c r="B10" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="56"/>
+        <v>115</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="11"/>
@@ -9227,12 +10113,12 @@
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="56"/>
+        <v>117</v>
+      </c>
+      <c r="E11" s="42"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="11"/>
@@ -9245,12 +10131,12 @@
       <c r="A12" s="4"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="56"/>
+        <v>108</v>
+      </c>
+      <c r="E12" s="42"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="11"/>
@@ -9267,7 +10153,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="11"/>
@@ -9281,35 +10167,35 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
+      <c r="B14" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>87</v>
+      <c r="B15" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="56"/>
+        <v>115</v>
+      </c>
+      <c r="E15" s="42"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="11"/>
@@ -9322,12 +10208,12 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="56"/>
+        <v>117</v>
+      </c>
+      <c r="E16" s="42"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="11"/>
@@ -9340,12 +10226,12 @@
       <c r="A17" s="4"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="56"/>
+        <v>108</v>
+      </c>
+      <c r="E17" s="42"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="11"/>
@@ -9362,7 +10248,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="11"/>
@@ -9376,35 +10262,35 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
+      <c r="B19" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="1:12" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>87</v>
+      <c r="B20" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="56"/>
+        <v>118</v>
+      </c>
+      <c r="E20" s="42"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="11"/>
@@ -9420,12 +10306,12 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="56"/>
+        <v>117</v>
+      </c>
+      <c r="E21" s="42"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="11"/>
@@ -9438,12 +10324,12 @@
       <c r="A22" s="8"/>
       <c r="B22" s="34"/>
       <c r="C22" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="56"/>
+        <v>112</v>
+      </c>
+      <c r="E22" s="42"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="11"/>
@@ -9456,12 +10342,12 @@
       <c r="A23" s="8"/>
       <c r="B23" s="34"/>
       <c r="C23" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="56"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="11"/>
@@ -9472,12 +10358,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="B4:L4"/>
-    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
@@ -9500,20 +10386,20 @@
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9539,38 +10425,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -9578,15 +10464,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="56"/>
+        <v>123</v>
+      </c>
+      <c r="E5" s="42"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
@@ -9598,7 +10484,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="34"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="56"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
     </row>
@@ -9610,7 +10496,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="56"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
     </row>
@@ -9619,7 +10505,7 @@
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
     </row>
@@ -9628,19 +10514,19 @@
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="B9" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -9648,15 +10534,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="56"/>
+        <v>123</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
     </row>
@@ -9665,7 +10551,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="34"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="56"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
     </row>
@@ -9674,7 +10560,7 @@
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
     </row>
@@ -9686,7 +10572,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
     </row>
@@ -9695,19 +10581,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="B14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -9715,15 +10601,15 @@
         <v>9</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="56"/>
+        <v>123</v>
+      </c>
+      <c r="E15" s="42"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
     </row>
@@ -9732,7 +10618,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="34"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
     </row>
@@ -9741,7 +10627,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
     </row>
@@ -9753,7 +10639,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
     </row>
@@ -9762,19 +10648,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
+      <c r="B19" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -9782,15 +10668,15 @@
         <v>12</v>
       </c>
       <c r="B20" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="56"/>
+        <v>125</v>
+      </c>
+      <c r="E20" s="42"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
     </row>
@@ -9801,12 +10687,12 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
     </row>
@@ -9817,23 +10703,23 @@
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
@@ -9856,20 +10742,20 @@
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9895,38 +10781,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -9934,15 +10820,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="56"/>
+        <v>123</v>
+      </c>
+      <c r="E5" s="42"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
@@ -9954,7 +10840,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="34"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="56"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
     </row>
@@ -9966,7 +10852,7 @@
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="56"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
     </row>
@@ -9975,7 +10861,7 @@
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
     </row>
@@ -9984,19 +10870,19 @@
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="B9" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -10004,15 +10890,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="56"/>
+        <v>123</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
     </row>
@@ -10021,7 +10907,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="34"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="56"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
     </row>
@@ -10030,7 +10916,7 @@
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
     </row>
@@ -10042,7 +10928,7 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
     </row>
@@ -10051,19 +10937,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="B14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -10071,15 +10957,15 @@
         <v>9</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="56"/>
+        <v>123</v>
+      </c>
+      <c r="E15" s="42"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
     </row>
@@ -10088,7 +10974,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="34"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
     </row>
@@ -10097,7 +10983,7 @@
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
     </row>
@@ -10109,7 +10995,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
     </row>
@@ -10118,19 +11004,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
+      <c r="B19" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12" ht="102" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -10138,15 +11024,15 @@
         <v>12</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="56"/>
+        <v>140</v>
+      </c>
+      <c r="E20" s="42"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
     </row>
@@ -10157,12 +11043,12 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
     </row>
@@ -10170,23 +11056,23 @@
       <c r="A22" s="8"/>
       <c r="B22" s="34"/>
       <c r="C22" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B19:L19"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
